--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6392876666666667</v>
+        <v>1.150782</v>
       </c>
       <c r="H2">
-        <v>1.917863</v>
+        <v>3.452345999999999</v>
       </c>
       <c r="I2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="J2">
-        <v>0.02178586938683698</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N2">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O2">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>42.43907893489978</v>
+        <v>41.06270966807998</v>
       </c>
       <c r="R2">
-        <v>381.951710414098</v>
+        <v>369.5643870127199</v>
       </c>
       <c r="S2">
-        <v>0.009087323921741797</v>
+        <v>0.03823856951930295</v>
       </c>
       <c r="T2">
-        <v>0.009087323921741799</v>
+        <v>0.03823856951930295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6392876666666667</v>
+        <v>27.59461233333333</v>
       </c>
       <c r="H3">
-        <v>1.917863</v>
+        <v>82.78383700000001</v>
       </c>
       <c r="I3">
-        <v>0.02178586938683698</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="J3">
-        <v>0.02178586938683698</v>
+        <v>0.916923015885182</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N3">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>59.30399070096011</v>
+        <v>984.6430989074265</v>
       </c>
       <c r="R3">
-        <v>533.7359163086411</v>
+        <v>8861.787890166839</v>
       </c>
       <c r="S3">
-        <v>0.01269854546509518</v>
+        <v>0.9169230158851821</v>
       </c>
       <c r="T3">
-        <v>0.01269854546509518</v>
+        <v>0.916923015885182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.59461233333333</v>
+        <v>1.290098666666667</v>
       </c>
       <c r="H4">
-        <v>82.78383700000001</v>
+        <v>3.870296</v>
       </c>
       <c r="I4">
-        <v>0.9403788801510861</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="J4">
-        <v>0.9403788801510863</v>
+        <v>0.0428678303554395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>66.38494866666666</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N4">
-        <v>199.154846</v>
+        <v>107.04732</v>
       </c>
       <c r="O4">
-        <v>0.4171200956172241</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4171200956172242</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1831.8669232249</v>
+        <v>46.03386826741332</v>
       </c>
       <c r="R4">
-        <v>16486.8023090241</v>
+        <v>414.3048144067199</v>
       </c>
       <c r="S4">
-        <v>0.3922509284050392</v>
+        <v>0.04286783035543951</v>
       </c>
       <c r="T4">
-        <v>0.3922509284050393</v>
+        <v>0.0428678303554395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>27.59461233333333</v>
+        <v>0.05930433333333333</v>
       </c>
       <c r="H5">
-        <v>82.78383700000001</v>
+        <v>0.177913</v>
       </c>
       <c r="I5">
-        <v>0.9403788801510861</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="J5">
-        <v>0.9403788801510863</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.76573566666667</v>
+        <v>35.68243999999999</v>
       </c>
       <c r="N5">
-        <v>278.297207</v>
+        <v>107.04732</v>
       </c>
       <c r="O5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5828799043827758</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>2559.83451353814</v>
+        <v>2.116123315906666</v>
       </c>
       <c r="R5">
-        <v>23038.51062184326</v>
+        <v>19.04510984316</v>
       </c>
       <c r="S5">
-        <v>0.5481279517460469</v>
+        <v>0.001970584240075516</v>
       </c>
       <c r="T5">
-        <v>0.548127951746047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.027521</v>
-      </c>
-      <c r="H6">
-        <v>3.082562999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.03501622112460397</v>
-      </c>
-      <c r="J6">
-        <v>0.03501622112460398</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N6">
-        <v>199.154846</v>
-      </c>
-      <c r="O6">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P6">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q6">
-        <v>68.21192883892199</v>
-      </c>
-      <c r="R6">
-        <v>613.9073595502979</v>
-      </c>
-      <c r="S6">
-        <v>0.01460596950364867</v>
-      </c>
-      <c r="T6">
-        <v>0.01460596950364868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.027521</v>
-      </c>
-      <c r="H7">
-        <v>3.082562999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.03501622112460397</v>
-      </c>
-      <c r="J7">
-        <v>0.03501622112460398</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N7">
-        <v>278.297207</v>
-      </c>
-      <c r="O7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P7">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q7">
-        <v>95.31874147794899</v>
-      </c>
-      <c r="R7">
-        <v>857.8686733015409</v>
-      </c>
-      <c r="S7">
-        <v>0.0204102516209553</v>
-      </c>
-      <c r="T7">
-        <v>0.0204102516209553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.082722</v>
-      </c>
-      <c r="H8">
-        <v>0.248166</v>
-      </c>
-      <c r="I8">
-        <v>0.002819029337472899</v>
-      </c>
-      <c r="J8">
-        <v>0.002819029337472899</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>66.38494866666666</v>
-      </c>
-      <c r="N8">
-        <v>199.154846</v>
-      </c>
-      <c r="O8">
-        <v>0.4171200956172241</v>
-      </c>
-      <c r="P8">
-        <v>0.4171200956172242</v>
-      </c>
-      <c r="Q8">
-        <v>5.491495723603999</v>
-      </c>
-      <c r="R8">
-        <v>49.42346151243601</v>
-      </c>
-      <c r="S8">
-        <v>0.001175873786794456</v>
-      </c>
-      <c r="T8">
-        <v>0.001175873786794456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.082722</v>
-      </c>
-      <c r="H9">
-        <v>0.248166</v>
-      </c>
-      <c r="I9">
-        <v>0.002819029337472899</v>
-      </c>
-      <c r="J9">
-        <v>0.002819029337472899</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>92.76573566666667</v>
-      </c>
-      <c r="N9">
-        <v>278.297207</v>
-      </c>
-      <c r="O9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="P9">
-        <v>0.5828799043827758</v>
-      </c>
-      <c r="Q9">
-        <v>7.673767185818001</v>
-      </c>
-      <c r="R9">
-        <v>69.06390467236201</v>
-      </c>
-      <c r="S9">
-        <v>0.001643155550678443</v>
-      </c>
-      <c r="T9">
-        <v>0.001643155550678443</v>
+        <v>0.001970584240075516</v>
       </c>
     </row>
   </sheetData>
